--- a/DailyBankFileProcess_Assignment1/Data.xlsx
+++ b/DailyBankFileProcess_Assignment1/Data.xlsx
@@ -64,21 +64,273 @@
     <x:t>Other Party Account</x:t>
   </x:si>
   <x:si>
+    <x:t>Total:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NZD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Count:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TDML - 000 - 02-0192-0122220-000</x:t>
+  </x:si>
+  <x:si>
     <x:t>02-08-2021</x:t>
   </x:si>
   <x:si>
+    <x:t>-440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INTERNET XFR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasury 023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-1255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-0192-0122220-023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23542001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TUPU PATRICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T N PATRICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-0330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-0330-0084796-030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22458087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A Dickson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279683059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THAT FLOORING FELLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dec-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12-3159-0139753-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22440.36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGENCY PAYMT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WS20210723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEBTWORKS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEBTWORKS NZ LTD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-0111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-0111-0246839-002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20913073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M. O. PEHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M O PEHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38-9300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38-9004-0076222-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23917945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276493237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N L WILLIAMS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38-9016-0492880-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264380.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWEEP FROM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-0985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-0192-0122220-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>448434.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWEEP FRM 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TWO DEGREES NZ LTD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-0820-0188002-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-162.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Internet Ban</x:t>
+  </x:si>
+  <x:si>
+    <x:t>king message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>for details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Services Fee - See</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-1243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1831055.58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWEEP FRM 00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TWO DEGREE NZ LTD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-0820-0188002-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18281.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NZPOST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-0500-0425267-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZAS2TXG12491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 90 VIC ST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RYHR14433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WALLACE L M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-0104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-0104-0065386-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2144820.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TDML - 002 - 02-0192-0122220-002</x:t>
+  </x:si>
+  <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>NZD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
     <x:t>220751461</x:t>
   </x:si>
   <x:si>
@@ -91,12 +343,6 @@
     <x:t>KRUGER P B</x:t>
   </x:si>
   <x:si>
-    <x:t>02-1255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DC</x:t>
-  </x:si>
-  <x:si>
     <x:t>02-0644-0256810-083</x:t>
   </x:si>
   <x:si>
@@ -113,252 +359,6 @@
   </x:si>
   <x:si>
     <x:t>02-0792-0121870-002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Count:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TDML - 000 - 02-0192-0122220-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INTERNET XFR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasury 023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-0192-0122220-023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23542001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TUPU PATRICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T N PATRICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-0330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-0330-0084796-030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22458087</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A Dickson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279683059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>THAT FLOORING FELLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dec-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-3159-0139753-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22440.36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AGENCY PAYMT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WS20210723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEBTWORKS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEBTWORKS NZ LTD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-0111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06-0111-0246839-002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20913073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M. O. PEHI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M O PEHI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38-9300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38-9004-0076222-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23917945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276493237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N L WILLIAMS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38-9016-0492880-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264380.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWEEP FROM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-0985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-0192-0122220-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>448434.64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWEEP FRM 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TWO DEGREES NZ LTD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-0820-0188002-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-162.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internet Ban</x:t>
-  </x:si>
-  <x:si>
-    <x:t>king message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>for details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Services Fee - See</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-1243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FEE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1831055.58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWEEP FRM 00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TWO DEGREE NZ LTD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-0820-0188002-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18281.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NZPOST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-0500-0425267-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZAS2TXG12491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 90 VIC ST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RYHR14433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WALLACE L M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-0104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-0104-0065386-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2144820.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TDML - 002 - 02-0192-0122220-002</x:t>
   </x:si>
   <x:si>
     <x:t>1627727676</x:t>
@@ -947,146 +947,137 @@
       <x:c r="D5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14"/>
+    <x:row r="7" spans="1:14"/>
+    <x:row r="8" spans="1:14">
+      <x:c r="A8" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:14">
-      <x:c r="A6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:14">
-      <x:c r="A7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:14"/>
-    <x:row r="9" spans="1:14"/>
+    </x:row>
+    <x:row r="9" spans="1:14">
+      <x:c r="A9" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="A10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="A11" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14">
       <x:c r="A12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>36</x:v>
@@ -1095,241 +1086,241 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L12" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14">
       <x:c r="A13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:14">
       <x:c r="A14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K14" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L14" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14">
       <x:c r="A15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="L15" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="K15" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="L15" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="M15" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N15" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14">
       <x:c r="A16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="K16" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L16" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14">
       <x:c r="A17" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="N17" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14">
       <x:c r="A18" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
         <x:v>78</x:v>
@@ -1337,128 +1328,137 @@
       <x:c r="H18" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L18" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N18" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14">
       <x:c r="A19" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14">
       <x:c r="A20" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="J20" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
       <x:c r="K20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="L20" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="M20" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14">
       <x:c r="A21" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
+      <x:c r="I21" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L21" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M21" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N21" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14">
@@ -1466,7 +1466,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>18</x:v>
@@ -1474,577 +1474,577 @@
       <x:c r="D22" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
+      <x:c r="E22" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="I22" s="0" t="s">
+    </x:row>
+    <x:row r="23" spans="1:14"/>
+    <x:row r="24" spans="1:14"/>
+    <x:row r="27" spans="1:14">
+      <x:c r="A27" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="J22" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="K22" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L22" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M22" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N22" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:14">
-      <x:c r="A23" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="J23" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="K23" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="L23" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M23" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N23" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:14">
-      <x:c r="A24" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:14"/>
-    <x:row r="28" spans="1:14"/>
+    </x:row>
+    <x:row r="28" spans="1:14">
+      <x:c r="A28" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="L28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="A29" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L29" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="M29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="s">
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="A30" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="L30" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M30" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N30" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="A31" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K31" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L31" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M31" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N31" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="A32" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="K32" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L32" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="A33" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="K33" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L33" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M33" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N33" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:14">
       <x:c r="A34" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="K34" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L34" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M34" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N34" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:14">
       <x:c r="A35" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="K35" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L35" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:14">
       <x:c r="A36" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K36" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L36" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M36" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N36" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:14">
       <x:c r="A37" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="K37" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L37" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M37" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N37" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:14">
       <x:c r="A38" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="K38" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="L38" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:14">
       <x:c r="A39" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="K39" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="L39" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N39" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:14">
       <x:c r="A40" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="K40" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="L40" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="M40" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N40" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:14">
       <x:c r="A41" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
         <x:v>148</x:v>
@@ -2064,31 +2064,31 @@
     </x:row>
     <x:row r="42" spans="1:14">
       <x:c r="A42" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K42" s="0" t="s">
         <x:v>149</x:v>
@@ -2105,84 +2105,81 @@
     </x:row>
     <x:row r="43" spans="1:14">
       <x:c r="A43" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="L43" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N43" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:14">
       <x:c r="A44" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="K44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:14">
@@ -2190,7 +2187,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>18</x:v>
@@ -2198,37 +2195,13 @@
       <x:c r="D45" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F45" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="I45" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="J45" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="K45" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L45" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M45" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N45" s="0" t="s">
-        <x:v>104</x:v>
+      <x:c r="E45" s="0" t="s">
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:14">
       <x:c r="A46" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>161</x:v>
@@ -2237,10 +2210,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>162</x:v>
@@ -2252,7 +2225,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="K46" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L46" s="0" t="s">
         <x:v>165</x:v>
@@ -2266,7 +2239,7 @@
     </x:row>
     <x:row r="47" spans="1:14">
       <x:c r="A47" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>168</x:v>
@@ -2275,7 +2248,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>169</x:v>
